--- a/Carteira Cópia editável.xlsx
+++ b/Carteira Cópia editável.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasmine Lopes\Documents\Projetos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064754A0-9817-42BB-89F9-651363AAF170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D422B1-224F-4B44-BB6F-32C1BA80A210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{283E2231-3BBE-4273-A9AB-341A0A8B61CA}"/>
   </bookViews>
@@ -335,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -558,12 +558,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -584,14 +635,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -621,11 +671,39 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2254,7 +2332,7 @@
       <pane xSplit="9" ySplit="14" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2339,7 +2417,7 @@
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -2360,10 +2438,10 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -2377,18 +2455,16 @@
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2396,10 +2472,10 @@
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
@@ -2411,10 +2487,10 @@
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
@@ -2438,24 +2514,24 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:20" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:20" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25">
+      <c r="A12" s="40">
         <f>SUM(F5:F8,G5:I8)</f>
         <v>0</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
@@ -2480,55 +2556,55 @@
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="32"/>
     </row>
     <row r="16" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="37"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="36"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="38" t="s">
         <v>24</v>
       </c>
       <c r="J18" t="s">
@@ -2544,7 +2620,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="38" t="s">
         <v>26</v>
       </c>
       <c r="J20" t="s">
@@ -2573,64 +2649,65 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:10" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G5:I8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
